--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Spencer_Cobbold/Thomas_Spencer_Cobbold.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Spencer_Cobbold/Thomas_Spencer_Cobbold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Spencer Cobbold est un médecin et un parasitologiste britannique, né le 28 mai 1828 à Ipswich et mort le 20 mars 1886 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils du révérend Richard Cobbold. En 1844, il entre en apprentissage auprès d’un chirurgien de Norwich et en 1847 commence ses études de médecine à Édimbourg. Il devient docteur en 1851. Après un passage à Paris, il est conservateur du musée d’anatomie de l’université d’Édimbourg de 1851 à 1856. Il épouse en 1852 Miss Amyss de Suffolk.
 En 1856, il vient à Londres donné des cours de botanique, de zoologie et d’anatomie comparée d’abord à l’hôpital St. Mary puis en 1861 au Middlesex Hospital Medical School.
@@ -553,7 +567,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 David I. Grove (2000). A History of Human Helminthology. Red-c2.com.  (ISBN 1 876809 08 6).</t>
